--- a/data/long_razon/P16-Urba-long_razon.xlsx
+++ b/data/long_razon/P16-Urba-long_razon.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>32,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-17,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>31,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,57%</t>
+          <t>57,1%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>50,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>57,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>19,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>11,98%</t>
+          <t>42,28%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>45,26%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>49,26%</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 82,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-41,36; 11,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 71,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-13,84; 37,78</t>
+          <t>12,11; 143,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,13; 96,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>28,39; 103,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 44,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-10,66; 38,25</t>
+          <t>10,03; 84,2</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>21,1; 77,74</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>22,11; 91,51</t>
         </is>
       </c>
     </row>
@@ -742,47 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>16,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-16,55%</t>
+          <t>32,52%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>66,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>28,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-2,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>35,82%</t>
+          <t>47,29%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>15,66%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>40,5%</t>
         </is>
       </c>
     </row>
@@ -795,47 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-21,31; 61,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-21,6; 53,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-23,38; 38,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-36,25; 10,36</t>
+          <t>-11,87; 89,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>23,01; 124,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 64,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-22,75; 20,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,36; 72,18</t>
+          <t>12,98; 105,26</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 39,69</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>11,17; 76,79</t>
         </is>
       </c>
     </row>
@@ -852,47 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>32,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>46,48%</t>
+          <t>59,07%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>109,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>20,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>39,44%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>61,47%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>51,11%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-46,35; 101,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-42,77; 88,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-22,14; 126,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-18,1; 169,08</t>
+          <t>-37,72; 264,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-40,94; 90,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,23; 272,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-25,94; 87,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-34,06; 64,68</t>
+          <t>-27,54; 193,5</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>13,25; 137,73</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-14,47; 181,05</t>
         </is>
       </c>
     </row>
@@ -962,47 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>21,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-5,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>19,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>48,54%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>51,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>49,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>10,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>19,47%</t>
+          <t>43,99%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>34,08%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>46,18%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1144,82 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 50,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-23,36; 16,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 44,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-16,38; 17,66</t>
+          <t>14,35; 94,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,67; 85,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,48; 76,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 26,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,53; 38,48</t>
+          <t>22,4; 75,99</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,88; 52,24</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>25,03; 73,27</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P16-Urba-long_razon.xlsx
+++ b/data/long_razon/P16-Urba-long_razon.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -654,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>57,1%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>42,28%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>49,26%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.2429522264159897</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.1680363055290165</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.3140118798503866</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.6021975830084715</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.09312483897783293</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.6087921118516727</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.531280482906538</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>0.4231548117334543</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>0.1612339453307699</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>0.1603535480442718</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>0.4281856523922886</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>0.5070070322417514</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>12,11; 143,93</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>10,03; 84,2</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>22,11; 91,51</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.07478556411687474</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.4037724147277215</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.02493545186181794</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0.143013409452881</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.1419271022971327</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>0.1991895283447933</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>0.2025973883054529</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>0.09569711631748913</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.04014591706799744</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>-0.06732534670082273</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>0.1906491217294412</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>0.2302027602130157</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0.704876294252427</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.121647086795011</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.7266831580566445</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>1.432808613788044</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0.3950705808511192</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>1.105994179179409</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.921784552670512</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.8671643668019311</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>0.3976028709255108</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>0.4213935535637677</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>0.7085716460957683</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>0.9323083341452546</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>32,52%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>47,29%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>40,5%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-11,87; 89,92</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>12,98; 105,26</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>11,17; 76,79</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0.2933112634165711</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.04993154535341641</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.03982830755376264</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.2273127109690508</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-0.1724710413088696</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.6477474971637005</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.3114387765109753</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>0.4906698018408876</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>0.01968897923553339</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>0.3332094386062255</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>0.1684504029046321</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>0.3671530154091615</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>59,07%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>39,44%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>51,11%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.04465140250574502</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.2250032965458672</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.2203184034781977</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.1986820789184186</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.3719437077821196</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>0.1728647551295284</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>0.004010584264588178</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>0.1433217074038841</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.1626718408680697</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>0.07977991981790343</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>-0.03783298620038063</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>0.07815241780722733</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-37,72; 264,85</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-27,54; 193,5</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-14,47; 181,05</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0.8337852059563006</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.5017489065555283</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.4250156090958127</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.7490442501802342</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.1020308488351294</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>1.211324608621744</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.666652322629971</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>1.055905638770748</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.2709738292279826</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>0.6935154237159203</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>0.4127138242822574</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>0.7360674072618895</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1074,137 +931,269 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>48,54%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>43,99%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>46,18%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>0.131879369458013</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.07906972156963427</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.2624828565166504</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.6058905979254628</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.4941519707847925</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0.08778459554724015</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>1.076532758622011</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>0.3958559133215991</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>0.2589295805378062</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>0.08247829954815826</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>0.5618684323742739</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>0.5214472331915501</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>14,35; 94,57</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>22,4; 75,99</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>25,03; 73,27</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-0.4698455204763839</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.3942606482671749</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.262273384906048</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.3758075053830785</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.1861091711466052</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.39910309195726</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>0.1795148241071441</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.2874592407554265</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.2550534064634462</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>-0.3017840140641687</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>0.09148490208508245</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>-0.1500481633784998</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>1.098617820976906</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.8747973107321552</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>1.157221729765369</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>2.665409808693329</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>1.871180169685392</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>1.037975581797153</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>3.019643145797732</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>1.952743771000537</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>0.9343880784493318</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>0.6876230199495053</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>1.371094358834656</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>1.821894266578865</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>0.2433438093284221</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.05676817854248465</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.1862079918467604</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.4647557794224185</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.002224221302143201</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.564292550506168</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.4824790031645801</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>0.4470373310695894</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>0.1131464499219827</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>0.2151480822169862</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>0.3303455225430542</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>0.4556063909714893</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.001639093867186973</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.252036593278975</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.005077814819643241</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.1277793664856587</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.1658130646395873</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>0.3043733820590594</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>0.22834695486106</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>0.2365813960388714</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.02243127890993745</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>0.0494294017209237</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>0.1779168533930078</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>0.2413018097774752</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0.5355947987958448</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.1680153637803267</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.460952636465393</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.9143158275709832</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.1908267002986986</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.9467521918736536</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.7529877566032713</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.7754770292734634</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.278527830119179</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.392080436025026</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>0.5325569442807078</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>0.7257793047511951</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1212,14 +1201,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
